--- a/Assets/Data/Excel/MasterWindowUI.xlsx
+++ b/Assets/Data/Excel/MasterWindowUI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6CC08-29F9-4118-B4C1-7C0B46DF0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7641C3-1414-48F7-91BE-BAB8DBFF158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
@@ -75,20 +75,20 @@
     <t>buttonCText</t>
   </si>
   <si>
-    <t>dialogueUIType, dialogDisplayType, buttonDisplayType are enum.
+    <t>windowDisplayType</t>
+  </si>
+  <si>
+    <t>ButtonConfirmationBox</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dialogDisplayType, buttonDisplayType are enum.
 widthRatio/heightRatio are from 0~1.
 If buttonText are not written, it will use the default text.
 title_EN is the title on the dialogBox.
 description_EN is the desctiption to the player.</t>
-  </si>
-  <si>
-    <t>windowUIType</t>
-  </si>
-  <si>
-    <t>windowDisplayType</t>
-  </si>
-  <si>
-    <t>ButtonConfirmationBox</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>

--- a/Assets/Data/Excel/MasterWindowUI.xlsx
+++ b/Assets/Data/Excel/MasterWindowUI.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VincentGame\HorrorGame\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7641C3-1414-48F7-91BE-BAB8DBFF158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420028E-CC92-473C-BE21-0AF52BE88A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CE5CDD7E-8CFD-476C-AB84-63CE99224655}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,9 +85,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>dialogDisplayType, buttonDisplayType are enum.
+    <t>windowDisplayType might not be used for anything as of now, 
+buttonDisplayType are enum([One_Ok], [Two_YesNo ]).
+If buttonText are not written, it will use the default text.
 widthRatio/heightRatio are from 0~1.
-If buttonText are not written, it will use the default text.
 title_EN is the title on the dialogBox.
 description_EN is the desctiption to the player.</t>
   </si>
@@ -483,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91137-7BD2-48ED-A93D-3ECC6F638E0D}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +505,7 @@
     <col min="13" max="13" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,11 +539,8 @@
       <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -567,20 +566,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75A76-AE1F-4C11-A986-582A94740223}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>